--- a/output/Table 3.xlsx
+++ b/output/Table 3.xlsx
@@ -33,7 +33,7 @@
     <t>Females</t>
   </si>
   <si>
-    <t>1990 rank</t>
+    <t>rank of mean DALYs within Sex-Year-Age group</t>
   </si>
   <si>
     <t>DALYsCause1990</t>
@@ -66,7 +66,7 @@
     <t>Neonatal</t>
   </si>
   <si>
-    <t>Colrectal Ca</t>
+    <t>Colorectal Ca</t>
   </si>
   <si>
     <t>Headaches</t>
